--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CCAC4-5BCC-4E83-9DEA-97FEB5EFB2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50FD942-1FC2-40F0-A48F-F6D48153D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1046,7 +1046,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1881,7 +1881,7 @@
         <v>73</v>
       </c>
       <c r="G31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="9" t="str">
         <f t="shared" ref="H31:H32" si="4">IF(OR(AND(G31&gt;1,G31&lt;&gt;"-")),"Can exchange","")</f>
@@ -1910,7 +1910,7 @@
         <v>73</v>
       </c>
       <c r="G32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1937,7 +1937,7 @@
         <v>74</v>
       </c>
       <c r="G33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="9" t="str">
         <f t="shared" ref="H33:H37" si="5">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
@@ -1964,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2018,7 +2018,7 @@
         <v>74</v>
       </c>
       <c r="G36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2045,7 +2045,7 @@
         <v>74</v>
       </c>
       <c r="G37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="9" t="str">
         <f t="shared" si="5"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50FD942-1FC2-40F0-A48F-F6D48153D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE8400B-F7AA-4F6E-85F7-3E1E78F814AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{62DF2243-2FB4-49DE-AAAF-0B81E966C004}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{62DF2243-2FB4-49DE-AAAF-0B81E966C004}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
   <si>
     <t>Year</t>
   </si>
@@ -91,12 +91,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>50th Anniversary - Signing of the Treaty of Rome</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
   </si>
   <si>
     <t>500.000</t>
-  </si>
-  <si>
-    <t>Subtype_3</t>
   </si>
   <si>
     <t>1.000.000</t>
@@ -240,9 +231,6 @@
     <t>150th Anniversary - Birth of Akseli Gallen-Kallela</t>
   </si>
   <si>
-    <t>30th Anniversary - Flag of Europe</t>
-  </si>
-  <si>
     <t>90th Anniversary - Death of Eino Leino</t>
   </si>
   <si>
@@ -307,6 +295,36 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_A</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_B</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>30th Anniversary - European Union flag</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -426,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -458,28 +476,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -501,15 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +530,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -568,7 +564,7 @@
     <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -597,16 +593,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,16 +612,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,15 +631,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -748,6 +735,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -769,9 +765,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1040,1034 +1036,1082 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
     <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="6" width="25.1796875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2004</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="8">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="str">
-        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="9" t="str">
+        <f t="shared" ref="I3" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2005</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="str">
-        <f t="shared" ref="H4:H5" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="9" t="str">
+        <f t="shared" ref="I4:I5" si="1">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2006</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="I5" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2007</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="str">
-        <f t="shared" ref="H6:H28" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="9" t="str">
+        <f t="shared" ref="I6:I28" si="2">IF(OR(AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="str">
+      <c r="I7" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="8">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="I8" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="8">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="I9" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2009</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="8">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="str">
+      <c r="I10" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2010</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="8">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="I11" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2011</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="8">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="9" t="str">
+      <c r="I12" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2012</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="8">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="9" t="str">
+      <c r="I13" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>78</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="8">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="9" t="str">
+      <c r="I14" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="8">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="9" t="str">
+      <c r="I15" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T15" s="24"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2013</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="8">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="9" t="str">
+      <c r="I16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2014</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="8">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="9" t="str">
+      <c r="I17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2014</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="8">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="9" t="str">
+      <c r="I18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2015</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="8">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="9" t="str">
+      <c r="I19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2015</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="8">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="8">
         <v>1</v>
       </c>
-      <c r="H20" s="9" t="str">
+      <c r="I20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2015</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
+        <v>79</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="8">
+        <v>19</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="9" t="str">
+      <c r="I21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2016</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="8">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="9" t="str">
+      <c r="I22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2016</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="9" t="str">
+      <c r="I23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S23" s="24"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="8">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="8">
         <v>1</v>
       </c>
-      <c r="H24" s="9" t="str">
+      <c r="I24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="8">
+        <v>19</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="8">
         <v>1</v>
       </c>
-      <c r="H25" s="9" t="str">
+      <c r="I25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="8">
+        <v>19</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="8">
         <v>1</v>
       </c>
-      <c r="H26" s="9" t="str">
+      <c r="I26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="20">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="20">
         <v>1</v>
       </c>
-      <c r="H27" s="9" t="str">
+      <c r="I27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2019</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="8">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="9" t="str">
+      <c r="I28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2020</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="8">
+        <v>19</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="8">
         <v>1</v>
       </c>
-      <c r="H29" s="9" t="str">
-        <f t="shared" ref="H29:H30" si="3">IF(OR(AND(G29&gt;1,G29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="9" t="str">
+        <f t="shared" ref="I29:I30" si="3">IF(OR(AND(H29&gt;1,H29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2020</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="8">
+        <v>19</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="8">
         <v>1</v>
       </c>
-      <c r="H30" s="9" t="str">
+      <c r="I30" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2021</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="8">
+        <v>19</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="8">
         <v>1</v>
       </c>
-      <c r="H31" s="9" t="str">
-        <f t="shared" ref="H31:H32" si="4">IF(OR(AND(G31&gt;1,G31&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="R31" s="24"/>
+      <c r="I31" s="9" t="str">
+        <f t="shared" ref="I31:I32" si="4">IF(OR(AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
       <c r="S31" s="24"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T31" s="24"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2021</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="8">
+        <v>19</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="8">
         <v>1</v>
       </c>
-      <c r="H32" s="9" t="str">
+      <c r="I32" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="8">
+        <v>19</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="8">
         <v>1</v>
       </c>
-      <c r="H33" s="9" t="str">
-        <f t="shared" ref="H33:H37" si="5">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="9" t="str">
+        <f t="shared" ref="I33:I37" si="5">IF(OR(AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2022</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="8">
+        <v>19</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="8">
         <v>1</v>
       </c>
-      <c r="H34" s="9" t="str">
+      <c r="I34" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="H35" s="8">
         <v>1</v>
       </c>
-      <c r="H35" s="9" t="str">
+      <c r="I35" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2023</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="8">
+        <v>19</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="8">
         <v>1</v>
       </c>
-      <c r="H36" s="9" t="str">
+      <c r="I36" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>2023</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="8">
+        <v>19</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="8">
         <v>1</v>
       </c>
-      <c r="H37" s="9" t="str">
+      <c r="I37" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R40" s="24"/>
+    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G3 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+    <cfRule type="containsText" dxfId="12" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2079,12 +2123,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G4 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2096,12 +2140,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2113,12 +2157,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2130,12 +2174,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2147,12 +2191,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2164,12 +2208,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2181,12 +2225,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2198,12 +2242,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2215,12 +2259,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2232,12 +2276,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2249,12 +2293,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2266,12 +2310,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+  <conditionalFormatting sqref="H36">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2306,13 +2350,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2320,10 +2364,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2331,10 +2375,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2342,10 +2386,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2353,10 +2397,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2364,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2375,10 +2419,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE8400B-F7AA-4F6E-85F7-3E1E78F814AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F30564-38A8-41A2-9EEC-E6D815BD1F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -632,6 +632,15 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -735,15 +744,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -765,9 +765,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1042,7 +1042,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1121,7 +1121,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="9" t="str">
         <f t="shared" ref="I3" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1291,7 +1291,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2107,11 +2107,11 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="containsText" dxfId="12" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2124,11 +2124,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2141,7 +2141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2158,7 +2158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2175,7 +2175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2192,7 +2192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2209,7 +2209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2226,7 +2226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2243,7 +2243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2260,7 +2260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2277,7 +2277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2294,7 +2294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2311,7 +2311,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F30564-38A8-41A2-9EEC-E6D815BD1F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143DD21E-80B7-4E57-A188-16142B8963C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
   <si>
     <t>Year</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Elections and Democracy</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -765,9 +776,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1042,7 +1053,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2096,6 +2107,28 @@
         <v/>
       </c>
     </row>
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
@@ -2107,12 +2140,12 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2124,11 +2157,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2140,13 +2190,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2157,12 +2207,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2174,12 +2224,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2191,12 +2241,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2208,12 +2258,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H32">
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2225,12 +2275,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2242,13 +2292,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2259,13 +2309,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2276,12 +2326,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2293,12 +2343,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H36">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2310,13 +2360,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2338,7 +2388,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143DD21E-80B7-4E57-A188-16142B8963C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C5549C-CA1E-4120-B883-9A74FE5F32B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
   <si>
     <t>Year</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Elections and Democracy</t>
+  </si>
+  <si>
+    <t>Architecture of Finland</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -650,6 +653,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1053,7 +1064,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2124,8 +2135,32 @@
       <c r="F38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2140,12 +2175,12 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2157,11 +2192,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2173,13 +2225,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2190,12 +2242,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2207,12 +2259,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2224,12 +2276,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2241,12 +2293,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H32">
     <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2258,12 +2310,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2275,13 +2327,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2292,12 +2344,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2309,63 +2412,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H39">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C5549C-CA1E-4120-B883-9A74FE5F32B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE84108-4052-4D24-AB8E-C36D0BEFFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -638,14 +638,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -653,6 +645,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -787,9 +787,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1064,7 +1064,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1199,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1227,7 +1227,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="9" t="str">
         <f t="shared" ref="I6:I28" si="2">IF(OR(AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
@@ -1257,7 +1257,7 @@
         <v>27</v>
       </c>
       <c r="H7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1285,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1343,7 +1343,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1457,7 +1457,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1485,7 +1485,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1543,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1571,7 +1571,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1599,7 +1599,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1855,7 +1855,7 @@
         <v>23</v>
       </c>
       <c r="H28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2179,7 +2179,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2196,7 +2196,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2413,7 +2413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE84108-4052-4D24-AB8E-C36D0BEFFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF034C-7327-4746-B7CF-B2899E8CCCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,7 +1064,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2139,7 +2139,7 @@
         <v>70</v>
       </c>
       <c r="H38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2179,7 +2179,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2196,7 +2196,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF034C-7327-4746-B7CF-B2899E8CCCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08489C5-2570-4B35-AC76-70B00DAA05AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1064,7 +1064,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2179,7 +2179,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2196,7 +2196,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08489C5-2570-4B35-AC76-70B00DAA05AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E0145-F58B-4B07-B1F4-EDCA8B51039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
   <si>
     <t>Year</t>
   </si>
@@ -330,7 +330,7 @@
     <t>Elections and Democracy</t>
   </si>
   <si>
-    <t>Architecture of Finland</t>
+    <t>Gesellius-Lindgren-Saarinen Architecture Firm</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1064,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2159,9 +2159,11 @@
       <c r="F39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2179,7 +2181,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2196,7 +2198,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E0145-F58B-4B07-B1F4-EDCA8B51039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F51C16F-9E89-416F-9D60-8C2F9D0931A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -787,9 +803,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1058,13 +1074,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2167,8 +2183,30 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="8"/>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
+    </row>
+    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2177,12 +2215,12 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2194,12 +2232,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2211,11 +2249,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2227,12 +2282,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2244,12 +2316,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H31">
     <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2261,12 +2333,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H32">
     <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2278,12 +2350,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H33">
     <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2295,13 +2367,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2312,12 +2384,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H34">
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2329,12 +2401,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2346,63 +2469,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2414,12 +2486,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F51C16F-9E89-416F-9D60-8C2F9D0931A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB124364-2A8C-46B0-9448-8BDBE499812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -303,12 +306,6 @@
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol_A</t>
-  </si>
-  <si>
-    <t>Subtype_2#Mint_Symbol_B</t>
-  </si>
-  <si>
     <t>Treaty of Rome</t>
   </si>
   <si>
@@ -331,6 +328,12 @@
   </si>
   <si>
     <t>Gesellius-Lindgren-Saarinen Architecture Firm</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_marks_2</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +621,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,6 +644,15 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -652,15 +667,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -803,9 +809,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1080,33 +1086,31 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
-    <col min="3" max="6" width="25.1796875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="10" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1116,19 +1120,21 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>30</v>
@@ -1258,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>33</v>
@@ -1344,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>33</v>
@@ -1455,7 +1461,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>6</v>
@@ -1655,10 +1661,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>34</v>
@@ -2028,7 +2034,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>34</v>
@@ -2139,7 +2145,7 @@
         <v>2024</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
@@ -2163,7 +2169,7 @@
         <v>2024</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
@@ -2209,9 +2215,9 @@
       <c r="H41" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
@@ -2219,7 +2225,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2236,7 +2242,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2470,7 +2476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2487,7 +2493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB124364-2A8C-46B0-9448-8BDBE499812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5181AF-8A5E-41C5-A5D9-7221D56F8EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{A3DFC3C4-356C-43D8-8A92-E07B17696A23}">
       <text>
         <r>
           <rPr>
@@ -75,12 +75,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{DAAE402F-E555-4D54-B780-171D6CF48150}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Koninklijke Nederlandse Munt
+(Royal Dutch Mint(Utrecht))</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="89">
   <si>
     <t>Year</t>
   </si>
@@ -334,6 +366,21 @@
   </si>
   <si>
     <t>Subtype_4#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Diplomacy and Foreign Policy</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol Caduceus</t>
+  </si>
+  <si>
+    <t>204.000</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -409,7 +456,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +499,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BE5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -548,18 +607,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,9 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -636,21 +698,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -788,6 +870,39 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -809,9 +924,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="22" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1080,1152 +1195,1421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43:I43"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="50.6328125" style="10" customWidth="1"/>
-    <col min="3" max="6" width="33.6328125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="3.6328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.6328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="9" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" style="9" customWidth="1"/>
+    <col min="9" max="10" width="3.6328125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="25" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="I2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>2004</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="str">
-        <f t="shared" ref="I3" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="H3" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="8" t="str">
+        <f t="shared" ref="K3" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>2005</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="str">
-        <f t="shared" ref="I4:I5" si="1">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="H4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="8" t="str">
+        <f t="shared" ref="K4:K5" si="1">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>2006</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9" t="str">
+      <c r="H5" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>2007</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="str">
-        <f t="shared" ref="I6:I28" si="2">IF(OR(AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="H6" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="8" t="str">
+        <f t="shared" ref="K6:K28" si="2">IF(OR(AND(I6&gt;1,I6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>2007</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9" t="str">
+      <c r="H7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>2008</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="str">
+      <c r="H8" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>2009</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9" t="str">
+      <c r="H9" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>2009</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="str">
+      <c r="H10" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>2010</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9" t="str">
+      <c r="H11" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>2011</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="str">
+      <c r="H12" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>2012</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9" t="str">
+      <c r="H13" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>2012</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9" t="str">
+      <c r="H14" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>2013</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9" t="str">
+      <c r="H15" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>2013</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="str">
+      <c r="H16" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>2014</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="str">
+      <c r="H17" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>2014</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="str">
+      <c r="H18" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>2015</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="19" t="s">
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="str">
+      <c r="H19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>2015</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9" t="str">
+      <c r="H20" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>2015</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="19" t="s">
+      <c r="E21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9" t="str">
+      <c r="H21" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>2016</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9" t="str">
+      <c r="H22" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>2016</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="E23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9" t="str">
+      <c r="H23" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>2017</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="E24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9" t="str">
+      <c r="H24" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>2017</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="19" t="s">
+      <c r="E25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="str">
+      <c r="H25" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>2018</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="19" t="s">
+      <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="str">
+      <c r="H26" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>2018</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="19" t="s">
+      <c r="E27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="20">
-        <v>1</v>
-      </c>
-      <c r="I27" s="9" t="str">
+      <c r="H27" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>2019</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="E28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="9" t="str">
+      <c r="H28" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>2020</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="E29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9" t="str">
-        <f t="shared" ref="I29:I30" si="3">IF(OR(AND(H29&gt;1,H29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="H29" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="8" t="str">
+        <f t="shared" ref="K29:K30" si="3">IF(OR(AND(I29&gt;1,I29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>2020</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="19" t="s">
+      <c r="E30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9" t="str">
+      <c r="H30" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>2021</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="19" t="s">
+      <c r="E31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="9" t="str">
-        <f t="shared" ref="I31:I32" si="4">IF(OR(AND(H31&gt;1,H31&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="H31" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="8" t="str">
+        <f t="shared" ref="K31:K32" si="4">IF(OR(AND(I31&gt;1,I31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+    </row>
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
         <v>2021</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="E32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="9" t="str">
+      <c r="H32" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>2022</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="19" t="s">
+      <c r="E33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9" t="str">
-        <f t="shared" ref="I33:I37" si="5">IF(OR(AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="H33" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="8" t="str">
+        <f t="shared" ref="K33:K37" si="5">IF(OR(AND(I33&gt;1,I33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
         <v>2022</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="19" t="s">
+      <c r="E34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="8">
-        <v>1</v>
-      </c>
-      <c r="I34" s="9" t="str">
+      <c r="H34" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
         <v>2022</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="19" t="s">
+      <c r="E35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="8">
-        <v>1</v>
-      </c>
-      <c r="I35" s="9" t="str">
+      <c r="H35" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
         <v>2023</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="19" t="s">
+      <c r="E36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="8">
-        <v>1</v>
-      </c>
-      <c r="I36" s="9" t="str">
+      <c r="H36" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
         <v>2023</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="19" t="s">
+      <c r="E37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="9" t="str">
+      <c r="H37" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>2024</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="19" t="s">
+      <c r="E38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="H38" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>2024</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="E39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="H39" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>2025</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="8"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-    </row>
-    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="B40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+    </row>
+    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
         <v>2025</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="8"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+  <conditionalFormatting sqref="I3 I5 I7 I9 I11 I13 I15 I17 I19 I21 I23 I25">
+    <cfRule type="containsText" dxfId="20" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 I5 I7 I9 I11 I13 I15 I17 I19 I21 I23 I25">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I6 I8 I10 I12 I14 I16 I18 I20 I22 I24 I26">
     <cfRule type="containsText" dxfId="19" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I6 I8 I10 I12 I14 I16 I18 I20 I22 I24 I26">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2237,12 +2621,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
-    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H4 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="18" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2254,12 +2672,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2271,12 +2689,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2288,12 +2723,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2305,13 +2740,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2322,12 +2757,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2339,12 +2774,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2356,12 +2791,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2373,12 +2808,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J41">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I41))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J41">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2390,13 +2859,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2407,63 +2876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="J3:J39">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2475,29 +2888,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H40))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="J3:J39">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2507,6 +2903,11 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,79 +2932,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
     </row>
